--- a/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.5/MGDMTO显著性分析/CEC/Data/CEC17_20.xlsx
+++ b/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.5/MGDMTO显著性分析/CEC/Data/CEC17_20.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,52 +450,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MFEA</t>
+          <t>MGDMTO_s_CR0.2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MFEA_AKT</t>
+          <t>MGDMTO_s_CR0.3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MFDE</t>
+          <t>MGDMTO_s_CR0.4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MTGA</t>
+          <t>MGDMTO_s_CR0.1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MKTDE</t>
+          <t>MGDMTO_s_CR0.6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AEMTO</t>
+          <t>MGDMTO_s_CR0.7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>RLMFEA</t>
+          <t>MGDMTO_s_CR0.8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>EMTO_AI</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BLKT_DE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MMLMTO</t>
+          <t>MGDMTO_s_CR0.9</t>
         </is>
       </c>
     </row>
@@ -507,52 +497,42 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>4.84E-02(+)</t>
+          <t>1.32E-01(+)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>9.40E-02(+)</t>
+          <t>1.05E-03(+)</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>5.75E-04(+)</t>
+          <t>5.29E-04(≈)</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>1.18E-02(+)</t>
+          <t>1.20E+00(+)</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>4.93E-04(≈)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>7.77E-11(+)</t>
+          <t>2.47E-04(≈)</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>6.16E-03(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>0.00E+00(≈)</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>9.32E-06(+)</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>1.07E-03(≈)</t>
+          <t>1.23E-03(≈)</t>
         </is>
       </c>
     </row>
@@ -564,52 +544,42 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>1.08E+02(+)</t>
+          <t>5.04E+01(+)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1.68E+02(+)</t>
+          <t>2.27E+00(+)</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1.09E+00(+)</t>
+          <t>9.95E-02(≈)</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>4.81E+01(+)</t>
+          <t>4.77E+02(+)</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>1.23E+00(≈)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>1.26E-07(+)</t>
+          <t>4.31E-01(≈)</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>2.45E+01(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>0.00E+00(≈)</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>9.64E+01(+)</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>2.39E+00(≈)</t>
+          <t>2.49E+01(+)</t>
         </is>
       </c>
     </row>
@@ -621,52 +591,42 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2.97E+00(+)</t>
+          <t>1.55E+00(+)</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6.68E+00(+)</t>
+          <t>3.45E-02(+)</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5.30E-10(+)</t>
+          <t>3.05E-15(≈)</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9.12E-01(+)</t>
+          <t>8.05E+00(+)</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1.26E-12(+)</t>
+          <t>4.94E-15(≈)</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1.06E-07(+)</t>
+          <t>1.96E-13(+)</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1.12E+00(+)</t>
+          <t>1.91E-13(+)</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8.42E-14(+)</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3.99E-04(+)</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2.42E-12(+)</t>
+          <t>1.56E-01(+)</t>
         </is>
       </c>
     </row>
@@ -678,12 +638,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>1.23E+02(+)</t>
+          <t>5.06E+01(+)</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3.11E+02(+)</t>
+          <t>3.49E-01(≈)</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -693,7 +653,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5.63E+01(+)</t>
+          <t>4.96E+02(+)</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -703,27 +663,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1.10E-11(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5.40E+01(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0.00E+00(≈)</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9.33E+01(+)</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0.00E+00(≈)</t>
+          <t>8.65E-01(≈)</t>
         </is>
       </c>
     </row>
@@ -735,22 +685,22 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>2.01E+01(-)</t>
+          <t>2.12E+01(≈)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2.01E+01(-)</t>
+          <t>2.12E+01(≈)</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2.11E+01(≈)</t>
+          <t>2.12E+01(≈)</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2.03E+01(-)</t>
+          <t>2.12E+01(+)</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -765,22 +715,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2.01E+01(-)</t>
+          <t>2.12E+01(≈)</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>2.12E+01(≈)</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2.08E+01(-)</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2.01E+01(-)</t>
         </is>
       </c>
     </row>
@@ -792,52 +732,42 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>3.17E+03(+)</t>
+          <t>4.25E+03(+)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3.42E+03(+)</t>
+          <t>3.55E+03(+)</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7.92E+03(+)</t>
+          <t>2.92E+03(≈)</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3.57E+03(+)</t>
+          <t>6.20E+03(+)</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1.06E+04(+)</t>
+          <t>5.92E+03(+)</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1.02E+04(+)</t>
+          <t>1.01E+04(+)</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2.82E+03(≈)</t>
+          <t>1.03E+04(+)</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6.66E+03(+)</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3.00E+03(≈)</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4.14E+03(+)</t>
+          <t>5.31E+03(+)</t>
         </is>
       </c>
     </row>
@@ -849,52 +779,42 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>2.10E+02(-)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1.49E+02(-)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3.56E+02(-)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1.02E+03(+)</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3.76E+02(≈)</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3.88E+02(+)</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3.75E+02(≈)</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>3.81E+02(≈)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6.08E+02(+)</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7.90E+01(-)</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4.97E+01(-)</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5.51E+01(-)</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3.88E+02(+)</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1.67E+02(-)</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3.82E+02(+)</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9.45E+01(-)</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2.48E-12(-)</t>
         </is>
       </c>
     </row>
@@ -906,52 +826,42 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1.15E-01(+)</t>
+          <t>7.51E+01(+)</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3.95E-01(+)</t>
+          <t>3.57E-01(+)</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5.21E-12(+)</t>
+          <t>1.68E-15(≈)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1.35E-08(+)</t>
+          <t>2.12E+03(+)</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3.45E-09(+)</t>
+          <t>4.57E-23(+)</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5.51E-06(+)</t>
+          <t>4.17E-20(+)</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4.50E-04(+)</t>
+          <t>1.71E-20(+)</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1.79E-22(+)</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5.59E-06(+)</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6.48E-12(+)</t>
+          <t>1.09E+00(+)</t>
         </is>
       </c>
     </row>
@@ -963,52 +873,42 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1.81E+00(+)</t>
+          <t>1.57E+00(+)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2.92E+00(+)</t>
+          <t>1.51E-02(+)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3.85E-02(+)</t>
+          <t>4.59E-15(≈)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1.31E-01(+)</t>
+          <t>9.23E+00(+)</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2.49E-07(+)</t>
+          <t>1.88E-12(+)</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1.89E-04(+)</t>
+          <t>5.45E-11(+)</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3.07E-01(+)</t>
+          <t>3.77E-11(+)</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1.59E-11(+)</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3.66E-04(+)</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2.03E-07(+)</t>
+          <t>1.25E-01(+)</t>
         </is>
       </c>
     </row>
@@ -1020,52 +920,42 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1.65E+02(+)</t>
+          <t>2.89E+04(+)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2.14E+02(+)</t>
+          <t>8.89E+01(+)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8.71E+01(+)</t>
+          <t>8.53E+01(+)</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1.08E+02(≈)</t>
+          <t>2.42E+06(+)</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8.04E+01(+)</t>
+          <t>7.32E+01(-)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8.41E+01(-)</t>
+          <t>7.29E+01(-)</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9.47E+01(+)</t>
+          <t>7.66E+01(-)</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7.64E+01(-)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4.61E+01(-)</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4.69E+01(-)</t>
+          <t>8.36E+01(≈)</t>
         </is>
       </c>
     </row>
@@ -1077,52 +967,42 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1.99E+01(+)</t>
+          <t>4.47E+00(+)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6.93E+00(+)</t>
+          <t>3.63E-01(+)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1.46E-01(+)</t>
+          <t>9.46E-10(-)</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1.92E+00(+)</t>
+          <t>1.56E+01(+)</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4.06E-04(+)</t>
+          <t>9.19E-12(+)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2.66E-02(+)</t>
+          <t>3.79E-10(+)</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1.91E+00(+)</t>
+          <t>1.46E-10(+)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2.21E-07(+)</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3.66E-03(+)</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3.29E-15(-)</t>
+          <t>4.11E-01(+)</t>
         </is>
       </c>
     </row>
@@ -1134,52 +1014,42 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>2.15E+01(+)</t>
+          <t>3.16E+00(+)</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7.57E+00(+)</t>
+          <t>1.94E-01(+)</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3.44E-02(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2.36E+00(+)</t>
+          <t>1.56E+01(+)</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1.24E-03(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2.70E-01(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2.02E+00(+)</t>
+          <t>0.00E+00(≈)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1.88E-06(≈)</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1.85E+00(+)</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0.00E+00(≈)</t>
+          <t>1.07E-01(+)</t>
         </is>
       </c>
     </row>
@@ -1191,52 +1061,42 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2.07E+02(+)</t>
+          <t>2.41E+03(+)</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2.68E+02(+)</t>
+          <t>1.40E+02(+)</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8.85E+01(+)</t>
+          <t>5.80E+01(≈)</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1.16E+02(+)</t>
+          <t>1.98E+06(+)</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4.91E+01(≈)</t>
+          <t>4.87E+01(-)</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4.59E+01(-)</t>
+          <t>4.83E+01(-)</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1.27E+02(+)</t>
+          <t>4.90E+01(-)</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5.00E+01(-)</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4.77E+01(-)</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4.79E+01(-)</t>
+          <t>7.05E+01(≈)</t>
         </is>
       </c>
     </row>
@@ -1248,52 +1108,42 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>1.57E+02(+)</t>
+          <t>9.87E+01(+)</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2.24E+02(+)</t>
+          <t>3.00E+01(+)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2.25E+01(+)</t>
+          <t>1.50E+01(≈)</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5.19E+01(+)</t>
+          <t>7.33E+02(+)</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7.36E+00(+)</t>
+          <t>1.12E+01(≈)</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1.36E-04(≈)</t>
+          <t>1.41E+01(≈)</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8.99E+01(+)</t>
+          <t>1.30E+01(≈)</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2.33E+01(≈)</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9.51E+01(+)</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7.63E-01(≈)</t>
+          <t>5.91E+01(+)</t>
         </is>
       </c>
     </row>
@@ -1305,52 +1155,42 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>5.20E-02(+)</t>
+          <t>3.68E-01(+)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1.09E-01(+)</t>
+          <t>1.27E-02(+)</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1.31E-03(+)</t>
+          <t>5.33E-05(+)</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5.02E-03(+)</t>
+          <t>1.43E+00(+)</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3.70E-18(≈)</t>
+          <t>1.35E-13(+)</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2.69E-05(+)</t>
+          <t>1.65E-12(+)</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5.91E-03(+)</t>
+          <t>5.37E-13(+)</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1.09E-12(+)</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5.63E-04(+)</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2.47E-04(+)</t>
+          <t>7.57E-03(+)</t>
         </is>
       </c>
     </row>
@@ -1362,52 +1202,42 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>2.50E+01(+)</t>
+          <t>1.20E+01(+)</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2.54E+01(+)</t>
+          <t>3.54E+00(+)</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3.60E+00(+)</t>
+          <t>8.72E-01(+)</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7.72E+00(+)</t>
+          <t>2.77E+01(+)</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8.28E-01(+)</t>
+          <t>7.83E-02(≈)</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5.90E-01(+)</t>
+          <t>9.16E-02(≈)</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1.25E+01(+)</t>
+          <t>6.21E-01(+)</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3.51E-02(≈)</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4.43E-01(+)</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>1.55E+00(+)</t>
+          <t>3.92E+00(+)</t>
         </is>
       </c>
     </row>
@@ -1419,52 +1249,42 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>4.58E+02(+)</t>
+          <t>3.08E+02(-)</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9.42E+02(+)</t>
+          <t>1.11E+02(-)</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9.53E+01(-)</t>
+          <t>3.60E+02(≈)</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1.60E+02(-)</t>
+          <t>2.17E+03(+)</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8.34E+01(-)</t>
+          <t>3.81E+02(+)</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3.92E+02(+)</t>
+          <t>3.71E+02(≈)</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2.20E+02(-)</t>
+          <t>3.76E+02(+)</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3.79E+02(+)</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>9.86E+01(-)</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7.26E+01(-)</t>
+          <t>3.83E+02(+)</t>
         </is>
       </c>
     </row>
@@ -1476,52 +1296,42 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>3.03E+03(≈)</t>
+          <t>4.15E+03(+)</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3.52E+03(+)</t>
+          <t>3.44E+03(+)</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4.10E+03(+)</t>
+          <t>3.01E+03(≈)</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3.03E+03(≈)</t>
+          <t>6.20E+03(+)</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1.98E+03(-)</t>
+          <t>6.22E+03(+)</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1.45E+04(+)</t>
+          <t>1.02E+04(+)</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2.75E+03(≈)</t>
+          <t>9.83E+03(+)</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6.95E+03(+)</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>1.13E+03(-)</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4.26E+03(+)</t>
+          <t>5.01E+03(+)</t>
         </is>
       </c>
     </row>
@@ -1533,52 +1343,42 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>15 / 2 / 1</t>
+          <t>15 / 1 / 2</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>17 / 0 / 1</t>
+          <t>14 / 2 / 2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14 / 2 / 2</t>
+          <t>3 / 13 / 2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13 / 2 / 3</t>
+          <t>18 / 0 / 0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9 / 6 / 3</t>
+          <t>7 / 9 / 2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14 / 2 / 2</t>
+          <t>8 / 8 / 2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13 / 2 / 3</t>
+          <t>9 / 7 / 2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9 / 7 / 2</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>11 / 1 / 6</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>7 / 5 / 6</t>
+          <t>12 / 6 / 0</t>
         </is>
       </c>
     </row>
